--- a/biology/Botanique/Liste_de_légumes/Liste_de_légumes.xlsx
+++ b/biology/Botanique/Liste_de_légumes/Liste_de_légumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -590,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -608,7 +622,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -660,7 +676,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,7 +694,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -767,7 +785,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -785,7 +803,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -828,7 +848,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -846,7 +866,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -889,7 +911,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -907,7 +929,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -950,7 +974,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -968,7 +992,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1016,7 +1042,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1034,7 +1060,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1081,7 +1109,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1099,7 +1127,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1139,7 +1169,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1157,7 +1187,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1198,7 +1230,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1216,7 +1248,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1259,7 +1293,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1277,7 +1311,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1321,7 +1357,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1339,7 +1375,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1388,7 +1426,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1406,7 +1444,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1450,7 +1490,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1468,7 +1508,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1514,7 +1556,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1532,7 +1574,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1595,7 +1639,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1613,7 +1657,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1662,7 +1708,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1680,7 +1726,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -1727,7 +1775,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1745,7 +1793,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1788,7 +1838,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1806,7 +1856,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1845,7 +1897,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1863,7 +1915,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Vincetoxicum floribundum</t>
         </is>
@@ -1875,7 +1929,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1893,7 +1947,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -1933,7 +1989,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_l%C3%A9gumes</t>
+          <t>Liste_de_légumes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1951,7 +2007,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
